--- a/biology/Microbiologie/Pseudotrachelocerca_trepida/Pseudotrachelocerca_trepida.xlsx
+++ b/biology/Microbiologie/Pseudotrachelocerca_trepida/Pseudotrachelocerca_trepida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudotrachelocerca, Pseudotrachelocercidae
 Pseudotrachelocerca trepida, unique représentant du genre Pseudotrachelocerca et de la famille des Pseudotrachelocercidae, est une espèce de Ciliés de la classe des Litostomatea et de l’ordre des Haptorida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Pseudotrachelocerca esy composé du préfixe pseudo-, faux et trachelocerca, par allusion au genre Trachelocerca Ehrenberg, 1830, autre cilié de la classe des Karyorelictea et de l'ordre des Trachelocercida.
 </t>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Pseudotrachelocercidae et le genre Pseudotrachelocerca, contenant la seule espèce Pseudotrachelocerca trepida, ont été nommés en 1990 par le biologiste chinois Weibo Song (d) (1958-)[1]. L'espèce avait été décrite en 1928 par l'allemand Alfred Kahl, sous le protonyme Trachelocerca trepida Kahl, 1928[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Pseudotrachelocercidae et le genre Pseudotrachelocerca, contenant la seule espèce Pseudotrachelocerca trepida, ont été nommés en 1990 par le biologiste chinois Weibo Song (d) (1958-). L'espèce avait été décrite en 1928 par l'allemand Alfred Kahl, sous le protonyme Trachelocerca trepida Kahl, 1928.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Weibo Song, « Infraciliature and silverline system of the ciliate Pseudotrachelocerca trepida (Kahl, 1928), nov. gen., nov. comb., and establishment of a new family, the pseudotrachelocercidae nov. fam. (Ciliophora, Haptoria) », European Journal of Protistology, Elsevier, vol. 26, no 2,‎ 1er octobre 1990, p. 160-166 (ISSN 0932-4739, 1618-0429 et 0932-4739, PMID 23196190, DOI 10.1016/S0932-4739(11)80110-0)</t>
         </is>
